--- a/Request_Project/TestData/SampleExcel.xlsx
+++ b/Request_Project/TestData/SampleExcel.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/ExcelUtil/src/main/java/com/excel/lib/util/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\git\repository2\Request_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BAE696-E207-4765-A19D-81D3F30501C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="760" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Regsitration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>phonenumber</t>
   </si>
@@ -48,38 +49,23 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>naveen1</t>
-  </si>
-  <si>
-    <t>tom1</t>
-  </si>
-  <si>
-    <t>test9090</t>
-  </si>
-  <si>
-    <t>peter1</t>
-  </si>
-  <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>steve</t>
-  </si>
-  <si>
-    <t>steve345</t>
-  </si>
-  <si>
-    <t>Kalie</t>
-  </si>
-  <si>
-    <t>kali12333</t>
+    <t>alammohammed79@gmail.com</t>
+  </si>
+  <si>
+    <t>SAYEDawan2008@</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>passWord</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +77,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,15 +113,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -135,6 +132,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -402,92 +402,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.296875" customWidth="1"/>
+    <col min="2" max="2" width="25.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0C5358DF-17D9-4DC5-8C71-9ABD9C1CADBD}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{9A33C3EC-57FB-4251-B4B2-8C1AFB970228}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(10+30)</f>
